--- a/ESTUDOS.xlsx
+++ b/ESTUDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA01BD2A-2AB5-4B00-81CE-ADD70170CFFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9957488-180D-4E0D-9ECF-3175DBBB7676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1641,7 +1641,7 @@
   <dimension ref="B2:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,15 +2156,15 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H19" s="1">
         <f>G19-F19</f>
-        <v>9.7222222222222265E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I19" s="7">
         <f>SUM(H19:H22)</f>
-        <v>9.7222222222222265E-2</v>
+        <v>-0.46527777777777773</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="10"/>
@@ -2190,14 +2190,14 @@
       <c r="D20" s="6"/>
       <c r="E20" s="10"/>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>G20-F20</f>
-        <v>0</v>
+        <v>-0.60416666666666663</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="6"/>
@@ -2727,7 +2727,7 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <f>I34+I29+I24+I19+I14+I9+I4+O34+O29+O24+O19+O14+O9+O4</f>
-        <v>0.43055555555555575</v>
+        <v>-0.13194444444444425</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>

--- a/ESTUDOS.xlsx
+++ b/ESTUDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9957488-180D-4E0D-9ECF-3175DBBB7676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F6DF7-971A-4F24-BDE5-93F79DBBE3AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576AA0B-B08B-4420-9211-550F4FC0297A}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="I19" s="7">
         <f>SUM(H19:H22)</f>
-        <v>-0.46527777777777773</v>
+        <v>0.26388888888888901</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="10"/>
@@ -2193,11 +2193,11 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="H20" s="1">
         <f>G20-F20</f>
-        <v>-0.60416666666666663</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="6"/>
@@ -2221,14 +2221,14 @@
       <c r="D21" s="6"/>
       <c r="E21" s="10"/>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H21" s="1">
         <f>G21-F21</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6"/>
@@ -2727,7 +2727,7 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <f>I34+I29+I24+I19+I14+I9+I4+O34+O29+O24+O19+O14+O9+O4</f>
-        <v>-0.13194444444444425</v>
+        <v>0.59722222222222254</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>

--- a/ESTUDOS.xlsx
+++ b/ESTUDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F6DF7-971A-4F24-BDE5-93F79DBBE3AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE3D002-7779-4640-9B6A-2017E5E83ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576AA0B-B08B-4420-9211-550F4FC0297A}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,20 +2300,22 @@
         <v>4</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10">
+        <v>44232</v>
+      </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="1">
         <f>G24-F24</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="I24" s="7">
         <f>SUM(H24:H27)</f>
-        <v>0</v>
+        <v>-0.5972222222222221</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="10"/>
@@ -2339,14 +2341,14 @@
       <c r="D25" s="6"/>
       <c r="E25" s="10"/>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <f>G25-F25</f>
-        <v>0</v>
+        <v>-0.68055555555555547</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
@@ -2727,7 +2729,7 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <f>I34+I29+I24+I19+I14+I9+I4+O34+O29+O24+O19+O14+O9+O4</f>
-        <v>0.59722222222222254</v>
+        <v>3.8857805861880479E-16</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>

--- a/ESTUDOS.xlsx
+++ b/ESTUDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE3D002-7779-4640-9B6A-2017E5E83ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F0F08-D324-44E1-AEC8-B24252EAB88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,13 +166,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -184,10 +187,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,48 +497,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="3"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="3"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -542,12 +548,12 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <f>H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="1">
         <v>0</v>
       </c>
@@ -557,17 +563,17 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <f>N5+N6+N7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -577,9 +583,9 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1">
         <v>0</v>
       </c>
@@ -589,14 +595,14 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="3"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -606,9 +612,9 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -618,14 +624,14 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -635,9 +641,9 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -647,33 +653,33 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
@@ -683,12 +689,12 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <f>H10+H11+H12</f>
         <v>0</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10">
+      <c r="J9" s="7"/>
+      <c r="K9" s="5">
         <v>44222</v>
       </c>
       <c r="L9" s="1">
@@ -700,17 +706,17 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <f>N10+N11+N12</f>
         <v>0.27083333333333337</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1">
         <v>0</v>
       </c>
@@ -720,9 +726,9 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1">
         <v>0.375</v>
       </c>
@@ -733,14 +739,14 @@
         <f>M10-L10</f>
         <v>0.125</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1">
         <v>0</v>
       </c>
@@ -750,9 +756,9 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -763,14 +769,14 @@
         <f>M11-L11</f>
         <v>6.25E-2</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1">
         <v>0</v>
       </c>
@@ -780,9 +786,9 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1">
         <v>0.75</v>
       </c>
@@ -793,33 +799,33 @@
         <f>M12-L12</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1">
         <v>0</v>
       </c>
@@ -829,12 +835,12 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <f>H15+H16+H17</f>
         <v>0</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10">
+      <c r="J14" s="7"/>
+      <c r="K14" s="5">
         <v>44223</v>
       </c>
       <c r="L14" s="1">
@@ -846,17 +852,17 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <f>N15+N16+N17</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -866,9 +872,9 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1">
         <v>0.375</v>
       </c>
@@ -879,14 +885,14 @@
         <f>M15-L15</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -896,9 +902,9 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="1">
         <v>0.625</v>
       </c>
@@ -909,14 +915,14 @@
         <f>M16-L16</f>
         <v>0.125</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
@@ -926,9 +932,9 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -939,33 +945,33 @@
         <f>M17-L17</f>
         <v>6.25E-2</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -975,12 +981,12 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <f>H20+H21+H22</f>
         <v>0</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="10">
+      <c r="J19" s="7"/>
+      <c r="K19" s="5">
         <v>44224</v>
       </c>
       <c r="L19" s="1">
@@ -992,17 +998,17 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="8">
         <f>N20+N21+N22</f>
         <v>0</v>
       </c>
-      <c r="P19" s="3"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1">
         <v>0</v>
       </c>
@@ -1012,9 +1018,9 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="1">
         <v>0</v>
       </c>
@@ -1025,14 +1031,14 @@
         <f>M20-L20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1">
         <v>0</v>
       </c>
@@ -1042,9 +1048,9 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1">
         <v>0</v>
       </c>
@@ -1055,14 +1061,14 @@
         <f>M21-L21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -1072,9 +1078,9 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1">
         <v>0</v>
       </c>
@@ -1085,33 +1091,33 @@
         <f>M22-L22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="10">
+      <c r="D24" s="7"/>
+      <c r="E24" s="5">
         <v>44218</v>
       </c>
       <c r="F24" s="1">
@@ -1123,12 +1129,12 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <f>H25+H26+H27</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="10">
+      <c r="J24" s="7"/>
+      <c r="K24" s="5">
         <v>44225</v>
       </c>
       <c r="L24" s="1">
@@ -1140,17 +1146,17 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="8">
         <f>N25+N26+N27</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="P24" s="3"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1">
         <v>0.375</v>
       </c>
@@ -1161,9 +1167,9 @@
         <f>G25-F25</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1174,14 +1180,14 @@
         <f>M25-L25</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1192,9 +1198,9 @@
         <f>G26-F26</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1205,14 +1211,14 @@
         <f>M26-L26</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1223,9 +1229,9 @@
         <f>G27-F27</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1236,33 +1242,33 @@
         <f>M27-L27</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="10">
+      <c r="D29" s="7"/>
+      <c r="E29" s="5">
         <v>44218</v>
       </c>
       <c r="F29" s="1">
@@ -1274,12 +1280,12 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f>H30+H31+H32</f>
         <v>0</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="10">
+      <c r="J29" s="7"/>
+      <c r="K29" s="5">
         <v>44226</v>
       </c>
       <c r="L29" s="1">
@@ -1291,17 +1297,17 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="8">
         <f>N30+N31+N32</f>
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1">
         <v>0</v>
       </c>
@@ -1311,9 +1317,9 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="1">
         <v>0</v>
       </c>
@@ -1323,14 +1329,14 @@
       <c r="N30" s="1">
         <v>0</v>
       </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1">
         <v>0</v>
       </c>
@@ -1340,9 +1346,9 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="10"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1">
         <v>0</v>
       </c>
@@ -1352,14 +1358,14 @@
       <c r="N31" s="1">
         <v>0</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1">
         <v>0</v>
       </c>
@@ -1369,9 +1375,9 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="10"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1">
         <v>0</v>
       </c>
@@ -1381,33 +1387,33 @@
       <c r="N32" s="1">
         <v>0</v>
       </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10">
+      <c r="D34" s="7"/>
+      <c r="E34" s="5">
         <v>44218</v>
       </c>
       <c r="F34" s="1">
@@ -1419,12 +1425,12 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <f>H35+H36+H37</f>
         <v>0</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="10">
+      <c r="J34" s="7"/>
+      <c r="K34" s="5">
         <v>44227</v>
       </c>
       <c r="L34" s="1">
@@ -1436,17 +1442,17 @@
       <c r="N34" s="1">
         <v>0</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="8">
         <f>N35+N36+N37</f>
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
+      <c r="P34" s="10"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1">
         <v>0</v>
       </c>
@@ -1456,9 +1462,9 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="1">
         <v>0</v>
       </c>
@@ -1468,14 +1474,14 @@
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1">
         <v>0</v>
       </c>
@@ -1485,9 +1491,9 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="10"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="1">
         <v>0</v>
       </c>
@@ -1497,14 +1503,14 @@
       <c r="N36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1">
         <v>0</v>
       </c>
@@ -1514,9 +1520,9 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="10"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="1">
         <v>0</v>
       </c>
@@ -1526,94 +1532,51 @@
       <c r="N37" s="1">
         <v>0</v>
       </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="11">
         <f>I34+I29+I24+I19+I14+I9+I4+O34+O29+O24+O19+O14+O9+O4</f>
         <v>0.97916666666666663</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="K29:K32"/>
     <mergeCell ref="B2:B37"/>
     <mergeCell ref="B38:P39"/>
     <mergeCell ref="C2:O3"/>
@@ -1630,6 +1593,49 @@
     <mergeCell ref="J29:J32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="D9:D12"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1640,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576AA0B-B08B-4420-9211-550F4FC0297A}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,52 +1655,54 @@
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="3"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="3"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10">
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5">
         <v>44229</v>
       </c>
       <c r="F4" s="1">
@@ -1707,33 +1715,35 @@
         <f>G4-F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <f>SUM(H4:H7)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5">
+        <v>44235</v>
+      </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="1">
         <f>M4-L4</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
+        <v>9.7222222222222265E-2</v>
+      </c>
+      <c r="O4" s="8">
         <f>SUM(N4:N7)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="3"/>
+        <v>0.18055555555555552</v>
+      </c>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -1744,27 +1754,27 @@
         <f>G5-F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N5" s="1">
         <f>M5-L5</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="3"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -1775,9 +1785,9 @@
         <f>G6-F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -1788,14 +1798,14 @@
         <f>M6-L6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -1806,9 +1816,9 @@
         <f>G7-F7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -1819,35 +1829,35 @@
         <f>M7-L7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10">
+      <c r="D9" s="7"/>
+      <c r="E9" s="5">
         <v>44229</v>
       </c>
       <c r="F9" s="1">
@@ -1860,33 +1870,35 @@
         <f>G9-F9</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <f>SUM(H9:H12)</f>
         <v>0.2291666666666668</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5">
+        <v>44236</v>
+      </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="1">
         <f>M9-L9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="O9" s="8">
         <f>SUM(N9:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3"/>
+        <v>0.2708333333333332</v>
+      </c>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1897,27 +1909,27 @@
         <f>G10-F10</f>
         <v>6.25E-2</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N10" s="1">
         <f>M10-L10</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="3"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -1928,27 +1940,27 @@
         <f>G11-F11</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N11" s="1">
         <f>M11-L11</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -1959,46 +1971,46 @@
         <f>G12-F12</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N12" s="1">
         <f>M12-L12</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10">
+      <c r="D14" s="7"/>
+      <c r="E14" s="5">
         <v>44230</v>
       </c>
       <c r="F14" s="1">
@@ -2011,33 +2023,35 @@
         <f>G14-F14</f>
         <v>0.10416666666666669</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <f>SUM(H14:H17)</f>
         <v>0.10416666666666669</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5">
+        <v>44237</v>
+      </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N14" s="1">
         <f>M14-L14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="O14" s="8">
         <f>SUM(N14:N17)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -2048,27 +2062,27 @@
         <f>G15-F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N15" s="1">
         <f>M15-L15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="3"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -2079,9 +2093,9 @@
         <f>G16-F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="1">
         <v>0</v>
       </c>
@@ -2092,14 +2106,14 @@
         <f>M16-L16</f>
         <v>0</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
@@ -2110,9 +2124,9 @@
         <f>G17-F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1">
         <v>0</v>
       </c>
@@ -2123,33 +2137,33 @@
         <f>M17-L17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10">
+      <c r="D19" s="7"/>
+      <c r="E19" s="5">
         <v>44231</v>
       </c>
       <c r="F19" s="1">
@@ -2162,33 +2176,35 @@
         <f>G19-F19</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <f>SUM(H19:H22)</f>
         <v>0.26388888888888901</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5">
+        <v>40585</v>
+      </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N19" s="1">
         <f>M19-L19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="O19" s="8">
         <f>SUM(N19:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="3"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2199,9 +2215,9 @@
         <f>G20-F20</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="1">
         <v>0</v>
       </c>
@@ -2212,14 +2228,14 @@
         <f>M20-L20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -2230,9 +2246,9 @@
         <f>G21-F21</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1">
         <v>0</v>
       </c>
@@ -2243,14 +2259,14 @@
         <f>M21-L21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -2261,9 +2277,9 @@
         <f>G22-F22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1">
         <v>0</v>
       </c>
@@ -2274,33 +2290,33 @@
         <f>M22-L22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="10">
+      <c r="D24" s="7"/>
+      <c r="E24" s="5">
         <v>44232</v>
       </c>
       <c r="F24" s="1">
@@ -2313,64 +2329,66 @@
         <f>G24-F24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <f>SUM(H24:H27)</f>
-        <v>-0.5972222222222221</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="10"/>
+        <v>0.19444444444444448</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5">
+        <v>40586</v>
+      </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N24" s="1">
         <f>M24-L24</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="O24" s="8">
         <f>SUM(N24:N27)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1">
         <v>0.68055555555555547</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="H25" s="1">
         <f>G25-F25</f>
-        <v>-0.68055555555555547</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="10"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N25" s="1">
         <f>M25-L25</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="3"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1">
         <v>0</v>
       </c>
@@ -2381,27 +2399,27 @@
         <f>G26-F26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N26" s="1">
         <f>M26-L26</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1">
         <v>0</v>
       </c>
@@ -2412,9 +2430,9 @@
         <f>G27-F27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="1">
         <v>0</v>
       </c>
@@ -2425,33 +2443,33 @@
         <f>M27-L27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1">
         <v>0</v>
       </c>
@@ -2462,12 +2480,12 @@
         <f>G29-F29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f>SUM(H29:H32)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="10"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="1">
         <v>0</v>
       </c>
@@ -2478,17 +2496,17 @@
         <f>M29-L29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="8">
         <f>SUM(N29:N32)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1">
         <v>0</v>
       </c>
@@ -2499,9 +2517,9 @@
         <f>G30-F30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="1">
         <v>0</v>
       </c>
@@ -2512,14 +2530,14 @@
         <f>M30-L30</f>
         <v>0</v>
       </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1">
         <v>0</v>
       </c>
@@ -2530,9 +2548,9 @@
         <f>G31-F31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="10"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1">
         <v>0</v>
       </c>
@@ -2543,14 +2561,14 @@
         <f>M31-L31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1">
         <v>0</v>
       </c>
@@ -2561,9 +2579,9 @@
         <f>G32-F32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="10"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1">
         <v>0</v>
       </c>
@@ -2574,33 +2592,33 @@
         <f>M32-L32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1">
         <v>0</v>
       </c>
@@ -2611,12 +2629,12 @@
         <f>G34-F34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <f>SUM(H34:H37)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="1">
         <v>0</v>
       </c>
@@ -2627,17 +2645,17 @@
         <f>M34-L34</f>
         <v>0</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="8">
         <f>SUM(N34:N37)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
+      <c r="P34" s="10"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1">
         <v>0</v>
       </c>
@@ -2648,9 +2666,9 @@
         <f>G35-F35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="1">
         <v>0</v>
       </c>
@@ -2661,14 +2679,14 @@
         <f>M35-L35</f>
         <v>0</v>
       </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1">
         <v>0</v>
       </c>
@@ -2679,9 +2697,9 @@
         <f>G36-F36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="10"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="1">
         <v>0</v>
       </c>
@@ -2692,14 +2710,14 @@
         <f>M36-L36</f>
         <v>0</v>
       </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1">
         <v>0</v>
       </c>
@@ -2710,9 +2728,9 @@
         <f>G37-F37</f>
         <v>0</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="10"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="1">
         <v>0</v>
       </c>
@@ -2723,57 +2741,88 @@
         <f>M37-L37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <f>I34+I29+I24+I19+I14+I9+I4+O34+O29+O24+O19+O14+O9+O4</f>
-        <v>3.8857805861880479E-16</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <f>SUM(I34,I29,I24,I19,I14,I9,I4,O4,O9,O14,O19,O24,O29,O34)</f>
+        <v>1.979166666666667</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="11">
+        <f>SUM(I34,I29,I24,I19,I14,I9,I4)</f>
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="11">
+        <f>SUM(O34,O29,O24,O19,O14,O9,O4)</f>
+        <v>1.1875</v>
+      </c>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="B38:P39"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="O34:O37"/>
+  <mergeCells count="60">
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
     <mergeCell ref="B2:B37"/>
     <mergeCell ref="C2:O3"/>
     <mergeCell ref="P2:P37"/>
@@ -2790,40 +2839,16 @@
     <mergeCell ref="K29:K32"/>
     <mergeCell ref="O29:O32"/>
     <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="O34:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ESTUDOS.xlsx
+++ b/ESTUDOS.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F0F08-D324-44E1-AEC8-B24252EAB88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB83CD9-14A2-4F2A-8E57-927B9BF44A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="1" r:id="rId1"/>
     <sheet name="FEVEREIRO" sheetId="2" r:id="rId2"/>
+    <sheet name="MARÇO" sheetId="3" r:id="rId3"/>
+    <sheet name="Folha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
   <si>
     <t>SEGUNDA</t>
   </si>
@@ -63,11 +65,23 @@
   <si>
     <t>FEVEREIRO</t>
   </si>
+  <si>
+    <t>00/00/0000</t>
+  </si>
+  <si>
+    <t>19//02/2021</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -154,11 +168,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,6 +246,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,48 +561,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -548,12 +612,12 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <f>H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1">
         <v>0</v>
       </c>
@@ -563,17 +627,17 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="9">
         <f>N5+N6+N7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -583,9 +647,9 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1">
         <v>0</v>
       </c>
@@ -595,14 +659,14 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -612,9 +676,9 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -624,14 +688,14 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -641,9 +705,9 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -653,33 +717,33 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
@@ -689,12 +753,12 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f>H10+H11+H12</f>
         <v>0</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5">
+      <c r="J9" s="8"/>
+      <c r="K9" s="6">
         <v>44222</v>
       </c>
       <c r="L9" s="1">
@@ -706,17 +770,17 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <f>N10+N11+N12</f>
         <v>0.27083333333333337</v>
       </c>
-      <c r="P9" s="10"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="1">
         <v>0</v>
       </c>
@@ -726,9 +790,9 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1">
         <v>0.375</v>
       </c>
@@ -739,14 +803,14 @@
         <f>M10-L10</f>
         <v>0.125</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="1">
         <v>0</v>
       </c>
@@ -756,9 +820,9 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -769,14 +833,14 @@
         <f>M11-L11</f>
         <v>6.25E-2</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="1">
         <v>0</v>
       </c>
@@ -786,9 +850,9 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="1">
         <v>0.75</v>
       </c>
@@ -799,33 +863,33 @@
         <f>M12-L12</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="1">
         <v>0</v>
       </c>
@@ -835,12 +899,12 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <f>H15+H16+H17</f>
         <v>0</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5">
+      <c r="J14" s="8"/>
+      <c r="K14" s="6">
         <v>44223</v>
       </c>
       <c r="L14" s="1">
@@ -852,17 +916,17 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="9">
         <f>N15+N16+N17</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="P14" s="10"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -872,9 +936,9 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="1">
         <v>0.375</v>
       </c>
@@ -885,14 +949,14 @@
         <f>M15-L15</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -902,9 +966,9 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="1">
         <v>0.625</v>
       </c>
@@ -915,14 +979,14 @@
         <f>M16-L16</f>
         <v>0.125</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
@@ -932,9 +996,9 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -945,33 +1009,33 @@
         <f>M17-L17</f>
         <v>6.25E-2</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -981,12 +1045,12 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="9">
         <f>H20+H21+H22</f>
         <v>0</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5">
+      <c r="J19" s="8"/>
+      <c r="K19" s="6">
         <v>44224</v>
       </c>
       <c r="L19" s="1">
@@ -998,17 +1062,17 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="9">
         <f>N20+N21+N22</f>
         <v>0</v>
       </c>
-      <c r="P19" s="10"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="1">
         <v>0</v>
       </c>
@@ -1018,9 +1082,9 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1">
         <v>0</v>
       </c>
@@ -1031,14 +1095,14 @@
         <f>M20-L20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="1">
         <v>0</v>
       </c>
@@ -1048,9 +1112,9 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="1">
         <v>0</v>
       </c>
@@ -1061,14 +1125,14 @@
         <f>M21-L21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -1078,9 +1142,9 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="1">
         <v>0</v>
       </c>
@@ -1091,33 +1155,33 @@
         <f>M22-L22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5">
+      <c r="D24" s="8"/>
+      <c r="E24" s="6">
         <v>44218</v>
       </c>
       <c r="F24" s="1">
@@ -1129,12 +1193,12 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <f>H25+H26+H27</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5">
+      <c r="J24" s="8"/>
+      <c r="K24" s="6">
         <v>44225</v>
       </c>
       <c r="L24" s="1">
@@ -1146,17 +1210,17 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="9">
         <f>N25+N26+N27</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="P24" s="10"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1">
         <v>0.375</v>
       </c>
@@ -1167,9 +1231,9 @@
         <f>G25-F25</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1180,14 +1244,14 @@
         <f>M25-L25</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1198,9 +1262,9 @@
         <f>G26-F26</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1211,14 +1275,14 @@
         <f>M26-L26</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1229,9 +1293,9 @@
         <f>G27-F27</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1242,33 +1306,33 @@
         <f>M27-L27</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5">
+      <c r="D29" s="8"/>
+      <c r="E29" s="6">
         <v>44218</v>
       </c>
       <c r="F29" s="1">
@@ -1280,12 +1344,12 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <f>H30+H31+H32</f>
         <v>0</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5">
+      <c r="J29" s="8"/>
+      <c r="K29" s="6">
         <v>44226</v>
       </c>
       <c r="L29" s="1">
@@ -1297,17 +1361,17 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="9">
         <f>N30+N31+N32</f>
         <v>0</v>
       </c>
-      <c r="P29" s="10"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="1">
         <v>0</v>
       </c>
@@ -1317,9 +1381,9 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1">
         <v>0</v>
       </c>
@@ -1329,14 +1393,14 @@
       <c r="N30" s="1">
         <v>0</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="1">
         <v>0</v>
       </c>
@@ -1346,9 +1410,9 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1">
         <v>0</v>
       </c>
@@ -1358,14 +1422,14 @@
       <c r="N31" s="1">
         <v>0</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1">
         <v>0</v>
       </c>
@@ -1375,9 +1439,9 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1">
         <v>0</v>
       </c>
@@ -1387,33 +1451,33 @@
       <c r="N32" s="1">
         <v>0</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="5">
+      <c r="D34" s="8"/>
+      <c r="E34" s="6">
         <v>44218</v>
       </c>
       <c r="F34" s="1">
@@ -1425,12 +1489,12 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="9">
         <f>H35+H36+H37</f>
         <v>0</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5">
+      <c r="J34" s="8"/>
+      <c r="K34" s="6">
         <v>44227</v>
       </c>
       <c r="L34" s="1">
@@ -1442,17 +1506,17 @@
       <c r="N34" s="1">
         <v>0</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="9">
         <f>N35+N36+N37</f>
         <v>0</v>
       </c>
-      <c r="P34" s="10"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="1">
         <v>0</v>
       </c>
@@ -1462,9 +1526,9 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1">
         <v>0</v>
       </c>
@@ -1474,14 +1538,14 @@
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1">
         <v>0</v>
       </c>
@@ -1491,9 +1555,9 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1">
         <v>0</v>
       </c>
@@ -1503,14 +1567,14 @@
       <c r="N36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="1">
         <v>0</v>
       </c>
@@ -1520,9 +1584,9 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1">
         <v>0</v>
       </c>
@@ -1532,45 +1596,45 @@
       <c r="N37" s="1">
         <v>0</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="B38" s="12">
         <f>I34+I29+I24+I19+I14+I9+I4+O34+O29+O24+O19+O14+O9+O4</f>
         <v>0.97916666666666663</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -1644,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576AA0B-B08B-4420-9211-550F4FC0297A}">
-  <dimension ref="B2:P39"/>
+  <dimension ref="B2:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB40" sqref="A1:AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,54 +1719,82 @@
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6">
         <v>44229</v>
       </c>
       <c r="F4" s="1">
@@ -1715,12 +1807,12 @@
         <f>G4-F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <f>SUM(H4:H7)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5">
+      <c r="J4" s="8"/>
+      <c r="K4" s="6">
         <v>44235</v>
       </c>
       <c r="L4" s="1">
@@ -1733,17 +1825,53 @@
         <f>M4-L4</f>
         <v>9.7222222222222265E-2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="9">
         <f>SUM(N4:N7)</f>
         <v>0.18055555555555552</v>
       </c>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="6">
+        <v>44242</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="1">
+        <f>S4-R4</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="U4" s="9">
+        <f>SUM(T4:T7)</f>
+        <v>0.29166666666666657</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6">
+        <v>44249</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>Y4-X4</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>SUM(Z4:Z7)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -1754,9 +1882,9 @@
         <f>G5-F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1767,14 +1895,40 @@
         <f>M5-L5</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="T5" s="1">
+        <f>S5-R5</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>Y5-X5</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -1785,9 +1939,9 @@
         <f>G6-F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -1798,14 +1952,40 @@
         <f>M6-L6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <f>S6-R6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>Y6-X6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -1816,9 +1996,9 @@
         <f>G7-F7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -1829,35 +2009,73 @@
         <f>M7-L7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10">
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f>S7-R7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>Y7-X7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5">
+      <c r="D9" s="8"/>
+      <c r="E9" s="6">
         <v>44229</v>
       </c>
       <c r="F9" s="1">
@@ -1870,12 +2088,12 @@
         <f>G9-F9</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f>SUM(H9:H12)</f>
         <v>0.2291666666666668</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5">
+      <c r="J9" s="8"/>
+      <c r="K9" s="6">
         <v>44236</v>
       </c>
       <c r="L9" s="1">
@@ -1888,17 +2106,53 @@
         <f>M9-L9</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <f>SUM(N9:N12)</f>
         <v>0.2708333333333332</v>
       </c>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6">
+        <v>44243</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T9" s="1">
+        <f>S9-R9</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="U9" s="9">
+        <f>SUM(T9:T12)</f>
+        <v>0.125</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6">
+        <v>44250</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>Y9-X9</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>SUM(Z9:Z12)</f>
+        <v>0.23611111111111116</v>
+      </c>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1909,9 +2163,9 @@
         <f>G10-F10</f>
         <v>6.25E-2</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1922,14 +2176,40 @@
         <f>M10-L10</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="T10" s="1">
+        <f>S10-R10</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>Y10-X10</f>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -1940,9 +2220,9 @@
         <f>G11-F11</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1">
         <v>0.75</v>
       </c>
@@ -1953,14 +2233,40 @@
         <f>M11-L11</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f>S11-R11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>Y11-X11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -1971,9 +2277,9 @@
         <f>G12-F12</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -1984,33 +2290,71 @@
         <f>M12-L12</f>
         <v>6.25E-2</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="6" t="s">
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f>S12-R12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>Y12-X12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5">
+      <c r="D14" s="8"/>
+      <c r="E14" s="6">
         <v>44230</v>
       </c>
       <c r="F14" s="1">
@@ -2023,12 +2367,12 @@
         <f>G14-F14</f>
         <v>0.10416666666666669</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <f>SUM(H14:H17)</f>
         <v>0.10416666666666669</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5">
+      <c r="J14" s="8"/>
+      <c r="K14" s="6">
         <v>44237</v>
       </c>
       <c r="L14" s="1">
@@ -2041,17 +2385,53 @@
         <f>M14-L14</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="9">
         <f>SUM(N14:N17)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6">
+        <v>44244</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="T14" s="1">
+        <f>S14-R14</f>
+        <v>6.9444444444444475E-2</v>
+      </c>
+      <c r="U14" s="9">
+        <f>SUM(T14:T17)</f>
+        <v>0.21527777777777773</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>Y14-X14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <f>SUM(Z14:Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -2062,9 +2442,9 @@
         <f>G15-F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2075,14 +2455,40 @@
         <f>M15-L15</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="T15" s="1">
+        <f>S15-R15</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>Y15-X15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -2093,9 +2499,9 @@
         <f>G16-F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="1">
         <v>0</v>
       </c>
@@ -2106,14 +2512,40 @@
         <f>M16-L16</f>
         <v>0</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>S16-R16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>Y16-X16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
@@ -2124,9 +2556,9 @@
         <f>G17-F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1">
         <v>0</v>
       </c>
@@ -2137,33 +2569,71 @@
         <f>M17-L17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f>S17-R17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>Y17-X17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5">
+      <c r="D19" s="8"/>
+      <c r="E19" s="6">
         <v>44231</v>
       </c>
       <c r="F19" s="1">
@@ -2176,12 +2646,12 @@
         <f>G19-F19</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="9">
         <f>SUM(H19:H22)</f>
         <v>0.26388888888888901</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5">
+      <c r="J19" s="8"/>
+      <c r="K19" s="6">
         <v>40585</v>
       </c>
       <c r="L19" s="1">
@@ -2194,17 +2664,52 @@
         <f>M19-L19</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="9">
         <f>SUM(N19:N22)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f>SUM(T19:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="6">
+        <v>44252</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>Y19-X19</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA19" s="9">
+        <f>SUM(Z19:Z22)</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2215,9 +2720,9 @@
         <f>G20-F20</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1">
         <v>0</v>
       </c>
@@ -2228,14 +2733,40 @@
         <f>M20-L20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f>S20-R20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="10"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>Y20-X20</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -2246,9 +2777,9 @@
         <f>G21-F21</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="1">
         <v>0</v>
       </c>
@@ -2259,14 +2790,40 @@
         <f>M21-L21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <f>S21-R21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>Y21-X21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -2277,9 +2834,9 @@
         <f>G22-F22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="1">
         <v>0</v>
       </c>
@@ -2290,33 +2847,71 @@
         <f>M22-L22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6" t="s">
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f>S22-R22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>Y22-X22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5">
+      <c r="D24" s="8"/>
+      <c r="E24" s="6">
         <v>44232</v>
       </c>
       <c r="F24" s="1">
@@ -2329,12 +2924,12 @@
         <f>G24-F24</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <f>SUM(H24:H27)</f>
         <v>0.19444444444444448</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5">
+      <c r="J24" s="8"/>
+      <c r="K24" s="6">
         <v>40586</v>
       </c>
       <c r="L24" s="1">
@@ -2347,17 +2942,53 @@
         <f>M24-L24</f>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="9">
         <f>SUM(N24:N27)</f>
         <v>0.3125</v>
       </c>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="1">
+        <f>S24-R24</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="U24" s="9">
+        <f>SUM(T24:T27)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6">
+        <v>44253</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>Y24-X24</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA24" s="9">
+        <f>SUM(Z24:Z27)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1">
         <v>0.68055555555555547</v>
       </c>
@@ -2368,9 +2999,9 @@
         <f>G25-F25</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -2381,14 +3012,40 @@
         <f>M25-L25</f>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T25" s="1">
+        <f>S25-R25</f>
+        <v>0.125</v>
+      </c>
+      <c r="U25" s="10"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>Y25-X25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="1">
         <v>0</v>
       </c>
@@ -2399,9 +3056,9 @@
         <f>G26-F26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -2412,14 +3069,40 @@
         <f>M26-L26</f>
         <v>0.25</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f>S26-R26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>Y26-X26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="1">
         <v>0</v>
       </c>
@@ -2430,9 +3113,9 @@
         <f>G27-F27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="1">
         <v>0</v>
       </c>
@@ -2443,33 +3126,71 @@
         <f>M27-L27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <f>S27-R27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>Y27-X27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="1">
         <v>0</v>
       </c>
@@ -2480,12 +3201,12 @@
         <f>G29-F29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <f>SUM(H29:H32)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="1">
         <v>0</v>
       </c>
@@ -2496,17 +3217,51 @@
         <f>M29-L29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="9">
         <f>SUM(N29:N32)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <f>SUM(T29:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <f>SUM(Z29:Z32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="1">
         <v>0</v>
       </c>
@@ -2517,9 +3272,9 @@
         <f>G30-F30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1">
         <v>0</v>
       </c>
@@ -2530,14 +3285,40 @@
         <f>M30-L30</f>
         <v>0</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f>S30-R30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="10"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <f>Y30-X30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="1">
         <v>0</v>
       </c>
@@ -2548,9 +3329,9 @@
         <f>G31-F31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1">
         <v>0</v>
       </c>
@@ -2561,14 +3342,40 @@
         <f>M31-L31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f>S31-R31</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="10"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <f>Y31-X31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1">
         <v>0</v>
       </c>
@@ -2579,9 +3386,9 @@
         <f>G32-F32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1">
         <v>0</v>
       </c>
@@ -2592,33 +3399,71 @@
         <f>M32-L32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="6" t="s">
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <f>S32-R32</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="10"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>Y32-X32</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="1">
         <v>0</v>
       </c>
@@ -2629,12 +3474,12 @@
         <f>G34-F34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="9">
         <f>SUM(H34:H37)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="1">
         <v>0</v>
       </c>
@@ -2645,17 +3490,51 @@
         <f>M34-L34</f>
         <v>0</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="9">
         <f>SUM(N34:N37)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <f>SUM(T34:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <f>SUM(Z34:Z37)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="1">
         <v>0</v>
       </c>
@@ -2666,9 +3545,9 @@
         <f>G35-F35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1">
         <v>0</v>
       </c>
@@ -2679,14 +3558,40 @@
         <f>M35-L35</f>
         <v>0</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f>S35-R35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="10"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <f>Y35-X35</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="5"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1">
         <v>0</v>
       </c>
@@ -2697,9 +3602,9 @@
         <f>G36-F36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1">
         <v>0</v>
       </c>
@@ -2710,14 +3615,40 @@
         <f>M36-L36</f>
         <v>0</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f>S36-R36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="10"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <f>Y36-X36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="5"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="1">
         <v>0</v>
       </c>
@@ -2728,9 +3659,9 @@
         <f>G37-F37</f>
         <v>0</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1">
         <v>0</v>
       </c>
@@ -2741,10 +3672,36 @@
         <f>M37-L37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f>S37-R37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="10"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>Y37-X37</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <f>SUM(I34,I29,I24,I19,I14,I9,I4,O4,O9,O14,O19,O24,O29,O34)</f>
         <v>1.979166666666667</v>
@@ -2755,7 +3712,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="11">
+      <c r="I38" s="14">
         <f>SUM(I34,I29,I24,I19,I14,I9,I4)</f>
         <v>0.79166666666666696</v>
       </c>
@@ -2764,13 +3721,31 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="11">
+      <c r="O38" s="14">
         <f>SUM(O34,O29,O24,O19,O14,O9,O4)</f>
         <v>1.1875</v>
       </c>
       <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="14">
+        <f>SUM(U34,U29,U24,U19,U14,U9,U4)</f>
+        <v>0.79861111111111094</v>
+      </c>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="14">
+        <f>SUM(AA34,AA29,AA24,AA19,AA14,AA9,AA4)</f>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="39" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2778,17 +3753,29 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="12"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="12"/>
+      <c r="O39" s="14"/>
       <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="90">
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="O4:O7"/>
@@ -2849,6 +3836,4351 @@
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="O34:O37"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="W9:W12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="AA14:AA17"/>
+    <mergeCell ref="W34:W37"/>
+    <mergeCell ref="AA34:AA37"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="AA19:AA22"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="AA24:AA27"/>
+    <mergeCell ref="W29:W32"/>
+    <mergeCell ref="AA29:AA32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683DFAD3-74B8-4AC7-9060-AAD39C973BE3}">
+  <dimension ref="B2:AB39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6">
+        <v>44256</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4-F4</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <f>SUM(H4:H7)</f>
+        <v>0.29166666666666657</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <f>SUM(N4:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f>S4-R4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <f>SUM(T4:T7)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>Y4-X4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>SUM(Z4:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H5" s="1">
+        <f>G5-F5</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f>S5-R5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>Y5-X5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <f>M6-L6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <f>S6-R6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>Y6-X6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7-L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f>S7-R7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>Y7-X7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6">
+        <v>44257</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G9-F9</f>
+        <v>0.125</v>
+      </c>
+      <c r="I9" s="9">
+        <f>SUM(H9:H12)</f>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f>M9-L9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <f>SUM(N9:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>S9-R9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <f>SUM(T9:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>Y9-X9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>SUM(Z9:Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H10" s="1">
+        <f>G10-F10</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f>M10-L10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f>S10-R10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>Y10-X10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M11-L11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f>S11-R11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>Y11-X11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f>M12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f>S12-R12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>Y12-X12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6">
+        <v>44258</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14-F14</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="I14" s="9">
+        <f>SUM(H14:H17)</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f>M14-L14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <f>SUM(N14:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>S14-R14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <f>SUM(T14:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>Y14-X14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <f>SUM(Z14:Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f>M15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f>S15-R15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>Y15-X15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f>M16-L16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>S16-R16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>Y16-X16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>G17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f>M17-L17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f>S17-R17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>Y17-X17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f>SUM(H19:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f>M19-L19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f>SUM(N19:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f>SUM(T19:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>Y19-X19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <f>SUM(Z19:Z22)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>G20-F20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f>M20-L20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f>S20-R20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="10"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>Y20-X20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21-F21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <f>M21-L21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <f>S21-R21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>Y21-X21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>G22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f>M22-L22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f>S22-R22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>Y22-X22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>G24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <f>SUM(H24:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f>M24-L24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <f>SUM(N24:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <f>S24-R24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <f>SUM(T24:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>Y24-X24</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA24" s="9">
+        <f>SUM(Z24:Z27)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>G25-F25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <f>M25-L25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <f>S25-R25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="10"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>Y25-X25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>G26-F26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f>M26-L26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f>S26-R26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>Y26-X26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <f>M27-L27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <f>S27-R27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>Y27-X27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>G29-F29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <f>SUM(H29:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <f>M29-L29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <f>SUM(N29:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <f>SUM(T29:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <f>SUM(Z29:Z32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G30-F30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f>M30-L30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f>S30-R30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="10"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <f>Y30-X30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f>G31-F31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <f>M31-L31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f>S31-R31</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="10"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <f>Y31-X31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f>G32-F32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <f>M32-L32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <f>S32-R32</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="10"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>Y32-X32</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>G34-F34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <f>SUM(H34:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f>M34-L34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <f>SUM(N34:N37)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <f>SUM(T34:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <f>SUM(Z34:Z37)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f>G35-F35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f>M35-L35</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f>S35-R35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="10"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <f>Y35-X35</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="5"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f>G36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f>M36-L36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f>S36-R36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="10"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <f>Y36-X36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="5"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f>G37-F37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f>M37-L37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f>S37-R37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="10"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>Y37-X37</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <f>SUM(I34,I29,I24,I19,I14,I9,I4,O4,O9,O14,O19,O24,O29,O34)</f>
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="14">
+        <f>SUM(I34,I29,I24,I19,I14,I9,I4)</f>
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="14">
+        <f>SUM(O34,O29,O24,O19,O14,O9,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="14">
+        <f>SUM(U34,U29,U24,U19,U14,U9,U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="14">
+        <f>SUM(AA34,AA29,AA24,AA19,AA14,AA9,AA4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="39" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="C2:O3"/>
+    <mergeCell ref="P2:P37"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="W9:W12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="AA19:AA22"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="AA14:AA17"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="AA29:AA32"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="AA24:AA27"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="W29:W32"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="W34:W37"/>
+    <mergeCell ref="AA34:AA37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="AA38:AA39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8141E368-5770-4628-A06C-C2A3BB2F6D46}">
+  <dimension ref="B2:AB39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AC40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6">
+        <v>44256</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <f>SUM(H4:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <f>SUM(N4:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f>S4-R4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <f>SUM(T4:T7)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>Y4-X4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>SUM(Z4:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>G5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f>S5-R5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>Y5-X5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <f>M6-L6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <f>S6-R6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>Y6-X6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7-L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f>S7-R7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>Y7-X7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <f>SUM(H9:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f>M9-L9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <f>SUM(N9:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>S9-R9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <f>SUM(T9:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>Y9-X9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>SUM(Z9:Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>G10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f>M10-L10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f>S10-R10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>Y10-X10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M11-L11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f>S11-R11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>Y11-X11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f>M12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f>S12-R12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>Y12-X12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14-F14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f>SUM(H14:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f>M14-L14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <f>SUM(N14:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>S14-R14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <f>SUM(T14:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>Y14-X14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <f>SUM(Z14:Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f>M15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f>S15-R15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>Y15-X15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f>M16-L16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>S16-R16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>Y16-X16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>G17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f>M17-L17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f>S17-R17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>Y17-X17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f>SUM(H19:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f>M19-L19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f>SUM(N19:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f>SUM(T19:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>Y19-X19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <f>SUM(Z19:Z22)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>G20-F20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f>M20-L20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f>S20-R20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="10"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>Y20-X20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21-F21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <f>M21-L21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <f>S21-R21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>Y21-X21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>G22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f>M22-L22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f>S22-R22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>Y22-X22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>G24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <f>SUM(H24:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f>M24-L24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <f>SUM(N24:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <f>S24-R24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <f>SUM(T24:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>Y24-X24</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA24" s="9">
+        <f>SUM(Z24:Z27)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>G25-F25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <f>M25-L25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <f>S25-R25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="10"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>Y25-X25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>G26-F26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f>M26-L26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f>S26-R26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>Y26-X26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <f>M27-L27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <f>S27-R27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>Y27-X27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>G29-F29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <f>SUM(H29:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <f>M29-L29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <f>SUM(N29:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <f>SUM(T29:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <f>SUM(Z29:Z32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G30-F30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f>M30-L30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f>S30-R30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="10"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <f>Y30-X30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f>G31-F31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <f>M31-L31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f>S31-R31</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="10"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <f>Y31-X31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f>G32-F32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <f>M32-L32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <f>S32-R32</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="10"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>Y32-X32</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>G34-F34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <f>SUM(H34:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f>M34-L34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <f>SUM(N34:N37)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <f>SUM(T34:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <f>SUM(Z34:Z37)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f>G35-F35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f>M35-L35</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f>S35-R35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="10"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <f>Y35-X35</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="5"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f>G36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f>M36-L36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f>S36-R36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="10"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <f>Y36-X36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="5"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f>G37-F37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f>M37-L37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f>S37-R37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="10"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>Y37-X37</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <f>SUM(I34,I29,I24,I19,I14,I9,I4,O4,O9,O14,O19,O24,O29,O34)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="14">
+        <f>SUM(I34,I29,I24,I19,I14,I9,I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="14">
+        <f>SUM(O34,O29,O24,O19,O14,O9,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="14">
+        <f>SUM(U34,U29,U24,U19,U14,U9,U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="14">
+        <f>SUM(AA34,AA29,AA24,AA19,AA14,AA9,AA4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="39" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="C2:O3"/>
+    <mergeCell ref="P2:P37"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="W9:W12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="AA19:AA22"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="AA14:AA17"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="AA29:AA32"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="AA24:AA27"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="W29:W32"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="W34:W37"/>
+    <mergeCell ref="AA34:AA37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="AA38:AA39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ESTUDOS.xlsx
+++ b/ESTUDOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB83CD9-14A2-4F2A-8E57-927B9BF44A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F93F5B1-A9DA-40A4-A17E-432CA95B8536}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>SEGUNDA</t>
   </si>
@@ -1710,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576AA0B-B08B-4420-9211-550F4FC0297A}">
   <dimension ref="B2:AB39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB40" sqref="A1:AB40"/>
     </sheetView>
   </sheetViews>
@@ -3877,10 +3877,13 @@
   <dimension ref="B2:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
@@ -3966,22 +3969,22 @@
         <v>0.29166666666666657</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="6" t="s">
-        <v>9</v>
+      <c r="K4" s="6">
+        <v>44263</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="1">
         <f>M4-L4</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O4" s="9">
         <f>SUM(N4:N7)</f>
-        <v>0</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="6" t="s">
@@ -4040,14 +4043,14 @@
       <c r="J5" s="8"/>
       <c r="K5" s="6"/>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N5" s="1">
         <f>M5-L5</f>
-        <v>0</v>
+        <v>0.13194444444444442</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
@@ -5862,7 +5865,7 @@
     <row r="38" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <f>SUM(I34,I29,I24,I19,I14,I9,I4,O4,O9,O14,O19,O24,O29,O34)</f>
-        <v>0.77083333333333304</v>
+        <v>1.0277777777777775</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -5871,7 +5874,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="14">
-        <f>SUM(I34,I29,I24,I19,I14,I9,I4)</f>
+        <f>SUM(I19,I4,I9,I14,I24,I29,I34)</f>
         <v>0.77083333333333304</v>
       </c>
       <c r="J38" s="4"/>
@@ -5880,8 +5883,8 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="14">
-        <f>SUM(O34,O29,O24,O19,O14,O9,O4)</f>
-        <v>0</v>
+        <f>SUM(O19,O4,O9,O14,O24,O29,O34)</f>
+        <v>0.25694444444444442</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
